--- a/deno/gen/dept/dept.xlsx
+++ b/deno/gen/dept/dept.xlsx
@@ -30,12 +30,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
+    <t xml:space="preserve">父部门</t>
+  </si>
+  <si>
     <t xml:space="preserve">名称</t>
   </si>
   <si>
     <t xml:space="preserve">排序</t>
   </si>
   <si>
+    <t xml:space="preserve">启用</t>
+  </si>
+  <si>
     <t xml:space="preserve">备注</t>
   </si>
   <si>
@@ -54,10 +60,16 @@
     <t xml:space="preserve">更新时间</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model.lbl%&gt;</t>
+    <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model._parent_id%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model.lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%~model.order_by%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.rem%&gt;</t>
@@ -431,31 +443,43 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/deno/gen/dept/dept.xlsx
+++ b/deno/gen/dept/dept.xlsx
@@ -69,13 +69,13 @@
     <t xml:space="preserve">&lt;%~model.order_by%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
+    <t xml:space="preserve">&lt;%=model.is_enabled%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.rem%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=model._is_locked%&gt;</t>
+    <t xml:space="preserve">&lt;%=model.is_locked%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model._create_usr_id%&gt;</t>

--- a/deno/gen/dept/dept.xlsx
+++ b/deno/gen/dept/dept.xlsx
@@ -30,34 +30,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">父部门</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">排序</t>
-  </si>
-  <si>
-    <t xml:space="preserve">启用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">锁定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创建人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创建时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新时间</t>
+    <t xml:space="preserve">&lt;%=await _data_.n("父部门")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("名称")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("排序")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("启用")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("备注")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("锁定")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("创建人")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("创建时间")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("更新人")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("更新时间")%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model._parent_id%&gt;</t>
